--- a/Quick Results analysis.xlsx
+++ b/Quick Results analysis.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7FA219-82B5-4C5D-97F0-A2695FEFDB81}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A1B6B-F48D-4567-AA58-6C147C0C0596}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>original file</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>File with puits de lumière</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>Zone Air System Sensible Cooling Energy  SP-CORE_MID SYS-6 FLR-3 SCH-A HPLCMT-CORE ZN [J]</t>
+  </si>
+  <si>
+    <t>Zone Air System Sensible Heating Energy  SP-CORE_MID SYS-6 FLR-3 SCH-A HPLCMT-CORE ZN [J]</t>
+  </si>
+  <si>
+    <t>Cooling Coil Total Cooling Energy  COIL COOLING WATER 1 [J]</t>
+  </si>
+  <si>
+    <t>Heating Coil Electric Energy  COIL HEATING ELECTRIC 9 [J]</t>
+  </si>
+  <si>
+    <t>Heating Coil Electric Energy  COIL HEATING ELECTRIC 7 [J]</t>
   </si>
 </sst>
 </file>
@@ -64,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,25 +366,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H9" sqref="H8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>36891.958333333336</v>
+      </c>
+      <c r="B3" s="2">
+        <v>169286000000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36891.958333333336</v>
+      </c>
+      <c r="D3" s="2">
+        <v>211466000000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36891.958333333336</v>
+      </c>
+      <c r="F3" s="2">
+        <v>760218000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36891.958333333336</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10878800000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>36891.958333333336</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1903050000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
